--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Burn down chart planning poker.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Burn down chart planning poker.xlsx
@@ -484,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -600,6 +600,7 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="5" fontId="8" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -802,11 +803,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="298710183"/>
-        <c:axId val="319727399"/>
+        <c:axId val="1354437405"/>
+        <c:axId val="679803383"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="298710183"/>
+        <c:axId val="1354437405"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -858,10 +859,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319727399"/>
+        <c:crossAx val="679803383"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319727399"/>
+        <c:axId val="679803383"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,7 +937,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298710183"/>
+        <c:crossAx val="1354437405"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -972,7 +973,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr b="1">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -980,13 +981,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr b="1">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Esperado y Real</a:t>
+              <a:t>Esperado y Real SPRINT 5</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1058,11 +1059,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="431639766"/>
-        <c:axId val="930147872"/>
+        <c:axId val="1854454886"/>
+        <c:axId val="271153337"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="431639766"/>
+        <c:axId val="1854454886"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1114,10 +1115,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="930147872"/>
+        <c:crossAx val="271153337"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="930147872"/>
+        <c:axId val="271153337"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1192,7 +1193,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431639766"/>
+        <c:crossAx val="1854454886"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1228,7 +1229,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr b="1">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -1236,13 +1237,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr b="1">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Esperado y Real</a:t>
+              <a:t>Esperado y Real SPRINT 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1314,11 +1315,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1469162210"/>
-        <c:axId val="1923492500"/>
+        <c:axId val="934364867"/>
+        <c:axId val="1887695382"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1469162210"/>
+        <c:axId val="934364867"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1370,10 +1371,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1923492500"/>
+        <c:crossAx val="1887695382"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1923492500"/>
+        <c:axId val="1887695382"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,7 +1449,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1469162210"/>
+        <c:crossAx val="934364867"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1570,11 +1571,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1910144873"/>
-        <c:axId val="1873931326"/>
+        <c:axId val="1320327127"/>
+        <c:axId val="2015930769"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1910144873"/>
+        <c:axId val="1320327127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1626,10 +1627,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1873931326"/>
+        <c:crossAx val="2015930769"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1873931326"/>
+        <c:axId val="2015930769"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1705,7 +1706,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1910144873"/>
+        <c:crossAx val="1320327127"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1741,7 +1742,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr b="1">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -1749,13 +1750,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr b="1">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Esperado y Real</a:t>
+              <a:t>Esperado y Real SPRINT 2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1827,11 +1828,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="821948404"/>
-        <c:axId val="1022969213"/>
+        <c:axId val="1632415647"/>
+        <c:axId val="762180014"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="821948404"/>
+        <c:axId val="1632415647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,10 +1884,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1022969213"/>
+        <c:crossAx val="762180014"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1022969213"/>
+        <c:axId val="762180014"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1961,7 +1962,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="821948404"/>
+        <c:crossAx val="1632415647"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2083,11 +2084,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="387525481"/>
-        <c:axId val="1567037579"/>
+        <c:axId val="603778387"/>
+        <c:axId val="405335267"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="387525481"/>
+        <c:axId val="603778387"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2139,10 +2140,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1567037579"/>
+        <c:crossAx val="405335267"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1567037579"/>
+        <c:axId val="405335267"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2217,7 +2218,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387525481"/>
+        <c:crossAx val="603778387"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2253,7 +2254,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr b="1">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -2261,13 +2262,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr b="1">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Esperado y Real</a:t>
+              <a:t>Esperado y Real SPRINT 3</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2339,11 +2340,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1972137796"/>
-        <c:axId val="254124802"/>
+        <c:axId val="253558947"/>
+        <c:axId val="1389350703"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1972137796"/>
+        <c:axId val="253558947"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2395,10 +2396,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254124802"/>
+        <c:crossAx val="1389350703"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254124802"/>
+        <c:axId val="1389350703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2473,7 +2474,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1972137796"/>
+        <c:crossAx val="253558947"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2595,11 +2596,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1992740840"/>
-        <c:axId val="1352570904"/>
+        <c:axId val="794035984"/>
+        <c:axId val="566116158"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1992740840"/>
+        <c:axId val="794035984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2651,10 +2652,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1352570904"/>
+        <c:crossAx val="566116158"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1352570904"/>
+        <c:axId val="566116158"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2729,7 +2730,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1992740840"/>
+        <c:crossAx val="794035984"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2765,7 +2766,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr b="1" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -2773,13 +2774,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr b="1" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Esperado y Real</a:t>
+              <a:t>Esperado y Real SPRINT 4</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2851,11 +2852,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="114836489"/>
-        <c:axId val="111963945"/>
+        <c:axId val="1898250488"/>
+        <c:axId val="257410801"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114836489"/>
+        <c:axId val="1898250488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2907,10 +2908,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111963945"/>
+        <c:crossAx val="257410801"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111963945"/>
+        <c:axId val="257410801"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2985,7 +2986,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114836489"/>
+        <c:crossAx val="1898250488"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3107,11 +3108,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="648056042"/>
-        <c:axId val="1126776886"/>
+        <c:axId val="160146856"/>
+        <c:axId val="522245944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="648056042"/>
+        <c:axId val="160146856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3163,10 +3164,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1126776886"/>
+        <c:crossAx val="522245944"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1126776886"/>
+        <c:axId val="522245944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3241,7 +3242,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648056042"/>
+        <c:crossAx val="160146856"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4886,6 +4887,7 @@
       <c r="C13" s="41">
         <v>32.0</v>
       </c>
+      <c r="Q13" s="43"/>
     </row>
     <row r="14">
       <c r="A14" s="39">
@@ -5105,7 +5107,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="43">
+      <c r="A5" s="44">
         <v>45541.0</v>
       </c>
       <c r="B5" s="40">
@@ -5120,7 +5122,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="43">
+      <c r="A6" s="44">
         <v>45542.0</v>
       </c>
       <c r="B6" s="40">
@@ -5132,7 +5134,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="43">
+      <c r="A7" s="44">
         <v>45543.0</v>
       </c>
       <c r="B7" s="40">
@@ -5144,7 +5146,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="43">
+      <c r="A8" s="44">
         <v>45544.0</v>
       </c>
       <c r="B8" s="40">
@@ -5156,7 +5158,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="43">
+      <c r="A9" s="44">
         <v>45545.0</v>
       </c>
       <c r="B9" s="40">
@@ -5168,7 +5170,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="43">
+      <c r="A10" s="44">
         <v>45546.0</v>
       </c>
       <c r="B10" s="40">
@@ -5180,7 +5182,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="43">
+      <c r="A11" s="44">
         <v>45547.0</v>
       </c>
       <c r="B11" s="40">
@@ -5192,7 +5194,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="43">
+      <c r="A12" s="44">
         <v>45548.0</v>
       </c>
       <c r="B12" s="40">
@@ -5204,7 +5206,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="43">
+      <c r="A13" s="44">
         <v>45549.0</v>
       </c>
       <c r="B13" s="40">
@@ -5216,7 +5218,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="43">
+      <c r="A14" s="44">
         <v>45550.0</v>
       </c>
       <c r="B14" s="40">
@@ -5228,7 +5230,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="43">
+      <c r="A15" s="44">
         <v>45551.0</v>
       </c>
       <c r="B15" s="40">
@@ -5240,7 +5242,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="43">
+      <c r="A16" s="44">
         <v>45552.0</v>
       </c>
       <c r="B16" s="40">
@@ -5252,7 +5254,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="43">
+      <c r="A17" s="44">
         <v>45553.0</v>
       </c>
       <c r="B17" s="40">
@@ -5264,7 +5266,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="43">
+      <c r="A18" s="44">
         <v>45554.0</v>
       </c>
       <c r="B18" s="40">
@@ -5276,7 +5278,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="43">
+      <c r="A19" s="44">
         <v>45555.0</v>
       </c>
       <c r="B19" s="40">
@@ -5288,7 +5290,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="43">
+      <c r="A20" s="44">
         <v>45556.0</v>
       </c>
       <c r="B20" s="40">
@@ -5300,7 +5302,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="43">
+      <c r="A21" s="44">
         <v>45557.0</v>
       </c>
       <c r="B21" s="40">
@@ -5312,7 +5314,7 @@
       </c>
     </row>
     <row r="22" ht="18.0" customHeight="1">
-      <c r="A22" s="43">
+      <c r="A22" s="44">
         <v>45558.0</v>
       </c>
       <c r="B22" s="40">
@@ -5324,7 +5326,7 @@
       </c>
     </row>
     <row r="23" ht="24.0" customHeight="1">
-      <c r="A23" s="43">
+      <c r="A23" s="44">
         <v>45559.0</v>
       </c>
       <c r="B23" s="40">
@@ -5336,7 +5338,7 @@
       </c>
     </row>
     <row r="24" ht="21.0" customHeight="1">
-      <c r="A24" s="43">
+      <c r="A24" s="44">
         <v>45560.0</v>
       </c>
       <c r="B24" s="40">
@@ -5348,7 +5350,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="43">
+      <c r="A25" s="44">
         <v>45561.0</v>
       </c>
       <c r="B25" s="40">
@@ -5432,7 +5434,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="44">
+      <c r="A5" s="45">
         <v>45562.0</v>
       </c>
       <c r="B5" s="40">
@@ -5447,7 +5449,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="44">
+      <c r="A6" s="45">
         <v>45563.0</v>
       </c>
       <c r="B6" s="40">
@@ -5459,7 +5461,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="44">
+      <c r="A7" s="45">
         <v>45564.0</v>
       </c>
       <c r="B7" s="40">
@@ -5471,7 +5473,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="44">
+      <c r="A8" s="45">
         <v>45565.0</v>
       </c>
       <c r="B8" s="40">
@@ -5483,7 +5485,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="44">
+      <c r="A9" s="45">
         <v>45566.0</v>
       </c>
       <c r="B9" s="40">
@@ -5495,7 +5497,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="44">
+      <c r="A10" s="45">
         <v>45567.0</v>
       </c>
       <c r="B10" s="40">
@@ -5507,7 +5509,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="44">
+      <c r="A11" s="45">
         <v>45568.0</v>
       </c>
       <c r="B11" s="40">
@@ -5519,7 +5521,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="44">
+      <c r="A12" s="45">
         <v>45569.0</v>
       </c>
       <c r="B12" s="40">
@@ -5531,7 +5533,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="44">
+      <c r="A13" s="45">
         <v>45570.0</v>
       </c>
       <c r="B13" s="40">
@@ -5543,7 +5545,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="44">
+      <c r="A14" s="45">
         <v>45571.0</v>
       </c>
       <c r="B14" s="40">
@@ -5555,7 +5557,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="44">
+      <c r="A15" s="45">
         <v>45572.0</v>
       </c>
       <c r="B15" s="40">
@@ -5567,7 +5569,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="44">
+      <c r="A16" s="45">
         <v>45573.0</v>
       </c>
       <c r="B16" s="40">
@@ -5579,7 +5581,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="44">
+      <c r="A17" s="45">
         <v>45574.0</v>
       </c>
       <c r="B17" s="40">
@@ -5591,7 +5593,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="44">
+      <c r="A18" s="45">
         <v>45575.0</v>
       </c>
       <c r="B18" s="40">
@@ -5603,7 +5605,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="44">
+      <c r="A19" s="45">
         <v>45576.0</v>
       </c>
       <c r="B19" s="40">
@@ -5615,7 +5617,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="44">
+      <c r="A20" s="45">
         <v>45577.0</v>
       </c>
       <c r="B20" s="40">
@@ -5627,7 +5629,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="44">
+      <c r="A21" s="45">
         <v>45578.0</v>
       </c>
       <c r="B21" s="40">
@@ -5639,50 +5641,50 @@
       </c>
     </row>
     <row r="22" ht="21.0" customHeight="1">
-      <c r="A22" s="45">
+      <c r="A22" s="46">
         <v>45579.0</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="47">
         <f t="shared" si="1"/>
         <v>11.04761905</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="48">
         <v>13.0</v>
       </c>
     </row>
     <row r="23" ht="22.5" customHeight="1">
-      <c r="A23" s="45">
+      <c r="A23" s="46">
         <v>45580.0</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="47">
         <f t="shared" si="1"/>
         <v>8.285714286</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="48">
         <v>8.0</v>
       </c>
     </row>
     <row r="24" ht="23.25" customHeight="1">
-      <c r="A24" s="45">
+      <c r="A24" s="46">
         <v>45581.0</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="47">
         <f t="shared" si="1"/>
         <v>5.523809524</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="48">
         <v>8.0</v>
       </c>
     </row>
     <row r="25" ht="21.75" customHeight="1">
-      <c r="A25" s="45">
+      <c r="A25" s="46">
         <v>45582.0</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="47">
         <f t="shared" si="1"/>
         <v>2.761904762</v>
       </c>
-      <c r="C25" s="47">
+      <c r="C25" s="48">
         <v>3.0</v>
       </c>
     </row>
@@ -5759,7 +5761,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="48">
+      <c r="A5" s="49">
         <v>45583.0</v>
       </c>
       <c r="B5" s="40">
@@ -5774,7 +5776,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="48">
+      <c r="A6" s="49">
         <v>45584.0</v>
       </c>
       <c r="B6" s="40">
@@ -5786,7 +5788,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="48">
+      <c r="A7" s="49">
         <v>45585.0</v>
       </c>
       <c r="B7" s="40">
@@ -5798,7 +5800,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="48">
+      <c r="A8" s="49">
         <v>45586.0</v>
       </c>
       <c r="B8" s="40">
@@ -5810,7 +5812,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="48">
+      <c r="A9" s="49">
         <v>45587.0</v>
       </c>
       <c r="B9" s="40">
@@ -5822,7 +5824,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="48">
+      <c r="A10" s="49">
         <v>45588.0</v>
       </c>
       <c r="B10" s="40">
@@ -5834,7 +5836,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="48">
+      <c r="A11" s="49">
         <v>45589.0</v>
       </c>
       <c r="B11" s="40">
@@ -5846,7 +5848,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="48">
+      <c r="A12" s="49">
         <v>45590.0</v>
       </c>
       <c r="B12" s="40">
@@ -5858,7 +5860,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="48">
+      <c r="A13" s="49">
         <v>45591.0</v>
       </c>
       <c r="B13" s="40">
@@ -5870,7 +5872,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="48">
+      <c r="A14" s="49">
         <v>45592.0</v>
       </c>
       <c r="B14" s="40">
@@ -5882,7 +5884,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="48">
+      <c r="A15" s="49">
         <v>45593.0</v>
       </c>
       <c r="B15" s="40">
@@ -5894,7 +5896,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="48">
+      <c r="A16" s="49">
         <v>45594.0</v>
       </c>
       <c r="B16" s="40">
@@ -5906,7 +5908,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="48">
+      <c r="A17" s="49">
         <v>45595.0</v>
       </c>
       <c r="B17" s="40">
@@ -5918,7 +5920,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="48">
+      <c r="A18" s="49">
         <v>45596.0</v>
       </c>
       <c r="B18" s="40">
@@ -5930,7 +5932,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="48">
+      <c r="A19" s="49">
         <v>45597.0</v>
       </c>
       <c r="B19" s="40">
@@ -5942,7 +5944,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="48">
+      <c r="A20" s="49">
         <v>45598.0</v>
       </c>
       <c r="B20" s="40">
@@ -5952,12 +5954,12 @@
       <c r="C20" s="41">
         <v>19.0</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="50" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="48">
+      <c r="A21" s="49">
         <v>45599.0</v>
       </c>
       <c r="B21" s="40">
@@ -5969,50 +5971,50 @@
       </c>
     </row>
     <row r="22" ht="21.75" customHeight="1">
-      <c r="A22" s="50">
+      <c r="A22" s="51">
         <v>45600.0</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="47">
         <f t="shared" si="1"/>
         <v>9.142857143</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="48">
         <v>8.0</v>
       </c>
     </row>
     <row r="23" ht="24.0" customHeight="1">
-      <c r="A23" s="50">
+      <c r="A23" s="51">
         <v>45601.0</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="47">
         <f t="shared" si="1"/>
         <v>6.857142857</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="48">
         <v>8.0</v>
       </c>
     </row>
     <row r="24" ht="22.5" customHeight="1">
-      <c r="A24" s="50">
+      <c r="A24" s="51">
         <v>45602.0</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="47">
         <f t="shared" si="1"/>
         <v>4.571428571</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="48">
         <v>8.0</v>
       </c>
     </row>
     <row r="25" ht="24.0" customHeight="1">
-      <c r="A25" s="50">
+      <c r="A25" s="51">
         <v>45603.0</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="47">
         <f t="shared" si="1"/>
         <v>2.285714286</v>
       </c>
-      <c r="C25" s="47">
+      <c r="C25" s="48">
         <v>0.0</v>
       </c>
     </row>
@@ -6075,7 +6077,7 @@
   </cols>
   <sheetData>
     <row r="4">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>95</v>
       </c>
       <c r="B4" s="37" t="s">
@@ -6089,7 +6091,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="52">
+      <c r="A5" s="53">
         <v>45604.0</v>
       </c>
       <c r="B5" s="40">
@@ -6104,7 +6106,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="52">
+      <c r="A6" s="53">
         <v>45605.0</v>
       </c>
       <c r="B6" s="40">
@@ -6116,7 +6118,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="52">
+      <c r="A7" s="53">
         <v>45606.0</v>
       </c>
       <c r="B7" s="40">
@@ -6128,7 +6130,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="52">
+      <c r="A8" s="53">
         <v>45607.0</v>
       </c>
       <c r="B8" s="40">
@@ -6140,7 +6142,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="52">
+      <c r="A9" s="53">
         <v>45608.0</v>
       </c>
       <c r="B9" s="40">
@@ -6152,7 +6154,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="52">
+      <c r="A10" s="53">
         <v>45609.0</v>
       </c>
       <c r="B10" s="40">
@@ -6164,7 +6166,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="52">
+      <c r="A11" s="53">
         <v>45610.0</v>
       </c>
       <c r="B11" s="40">
@@ -6176,7 +6178,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="52">
+      <c r="A12" s="53">
         <v>45611.0</v>
       </c>
       <c r="B12" s="40">
@@ -6188,7 +6190,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="52">
+      <c r="A13" s="53">
         <v>45612.0</v>
       </c>
       <c r="B13" s="40">
@@ -6200,7 +6202,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="52">
+      <c r="A14" s="53">
         <v>45613.0</v>
       </c>
       <c r="B14" s="40">
@@ -6212,7 +6214,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="52">
+      <c r="A15" s="53">
         <v>45614.0</v>
       </c>
       <c r="B15" s="40">
@@ -6224,7 +6226,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="52">
+      <c r="A16" s="53">
         <v>45615.0</v>
       </c>
       <c r="B16" s="40">
@@ -6236,7 +6238,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="52">
+      <c r="A17" s="53">
         <v>45616.0</v>
       </c>
       <c r="B17" s="40">
@@ -6248,7 +6250,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="52">
+      <c r="A18" s="53">
         <v>45617.0</v>
       </c>
       <c r="B18" s="40">
@@ -6260,74 +6262,88 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="52">
+      <c r="A19" s="53">
         <v>45618.0</v>
       </c>
       <c r="B19" s="40">
         <f t="shared" si="1"/>
         <v>15.66666667</v>
       </c>
-      <c r="C19" s="41"/>
+      <c r="C19" s="41">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="52">
+      <c r="A20" s="53">
         <v>45619.0</v>
       </c>
       <c r="B20" s="40">
         <f t="shared" si="1"/>
         <v>13.42857143</v>
       </c>
-      <c r="C20" s="41"/>
+      <c r="C20" s="41">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="52">
+      <c r="A21" s="53">
         <v>45620.0</v>
       </c>
       <c r="B21" s="40">
         <f t="shared" si="1"/>
         <v>11.19047619</v>
       </c>
-      <c r="C21" s="41"/>
+      <c r="C21" s="41">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="22" ht="18.0" customHeight="1">
-      <c r="A22" s="53">
+      <c r="A22" s="54">
         <v>45621.0</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="47">
         <f t="shared" si="1"/>
         <v>8.952380952</v>
       </c>
-      <c r="C22" s="47"/>
+      <c r="C22" s="48">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="23" ht="24.0" customHeight="1">
-      <c r="A23" s="53">
+      <c r="A23" s="54">
         <v>45622.0</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="47">
         <f t="shared" si="1"/>
         <v>6.714285714</v>
       </c>
-      <c r="C23" s="47"/>
+      <c r="C23" s="48">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="24" ht="23.25" customHeight="1">
-      <c r="A24" s="53">
+      <c r="A24" s="54">
         <v>45623.0</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="47">
         <f t="shared" si="1"/>
         <v>4.476190476</v>
       </c>
-      <c r="C24" s="47"/>
+      <c r="C24" s="48">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
-      <c r="A25" s="53">
+      <c r="A25" s="54">
         <v>45624.0</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="47">
         <f t="shared" si="1"/>
         <v>2.238095238</v>
       </c>
-      <c r="C25" s="47"/>
+      <c r="C25" s="48">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
